--- a/Assignment 4/final_results.xlsx
+++ b/Assignment 4/final_results.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23-35</t>
+          <t>29-35</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="C18" t="n">
